--- a/wild_reports/2023_24/tr0712t010_wild_report.xlsx
+++ b/wild_reports/2023_24/tr0712t010_wild_report.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,7 +593,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Squirrel</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -606,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -644,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Squirrel</t>
+          <t>escaped. presumed coyote</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -697,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>escaped. presumed coyote</t>
+          <t>Mink</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -745,14 +749,10 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Mink</t>
-        </is>
-      </c>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
@@ -774,55 +774,6 @@
       </c>
       <c r="L6" s="2" t="inlineStr"/>
       <c r="M6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>2023/24</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Registered Trapline</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>TR0712T010</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>712</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
